--- a/Code/Results/Cases/Case_8_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.51078123729035</v>
+        <v>21.36919321176054</v>
       </c>
       <c r="C2">
-        <v>20.3838395483098</v>
+        <v>21.08643438479734</v>
       </c>
       <c r="D2">
-        <v>4.261582320911327</v>
+        <v>3.97786286822014</v>
       </c>
       <c r="E2">
-        <v>12.17998921979082</v>
+        <v>12.47442314839415</v>
       </c>
       <c r="F2">
-        <v>34.03034133914376</v>
+        <v>31.33309662328249</v>
       </c>
       <c r="G2">
-        <v>2.077160121099151</v>
+        <v>1.326064903610929</v>
       </c>
       <c r="H2">
-        <v>2.153365611521799</v>
+        <v>2.178055000087873</v>
       </c>
       <c r="I2">
-        <v>3.148222192457719</v>
+        <v>3.199099591951467</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.09450445895872</v>
+        <v>18.90929255639558</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.06925673159461</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.27826793978952</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.33717494942409</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.83318628116371</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>19.09576817294057</v>
+      </c>
+      <c r="R2">
+        <v>12.38615814002184</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.96875135904036</v>
+        <v>19.97883460949807</v>
       </c>
       <c r="C3">
-        <v>18.96269528862486</v>
+        <v>19.63639219392367</v>
       </c>
       <c r="D3">
-        <v>4.257362835533548</v>
+        <v>3.943494852077127</v>
       </c>
       <c r="E3">
-        <v>11.44341324154135</v>
+        <v>11.83228904815365</v>
       </c>
       <c r="F3">
-        <v>32.36775606719442</v>
+        <v>29.86209760827533</v>
       </c>
       <c r="G3">
-        <v>2.084642413274078</v>
+        <v>1.616456922584566</v>
       </c>
       <c r="H3">
-        <v>1.869089476583949</v>
+        <v>1.936916217803671</v>
       </c>
       <c r="I3">
-        <v>2.882492915697744</v>
+        <v>3.004751686557694</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.47133063848409</v>
+        <v>18.44287876680943</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.92284320953275</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.67651326003543</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.17910926888266</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.96356250709187</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.96932831697982</v>
+      </c>
+      <c r="R3">
+        <v>12.51627475116323</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.96337470532201</v>
+        <v>19.07063232108899</v>
       </c>
       <c r="C4">
-        <v>18.04458288577219</v>
+        <v>18.69678194655384</v>
       </c>
       <c r="D4">
-        <v>4.253421665372876</v>
+        <v>3.920448715562704</v>
       </c>
       <c r="E4">
-        <v>10.97083276639023</v>
+        <v>11.42069936105138</v>
       </c>
       <c r="F4">
-        <v>31.31536435159266</v>
+        <v>28.92370756326229</v>
       </c>
       <c r="G4">
-        <v>2.089366018240235</v>
+        <v>2.165681303961129</v>
       </c>
       <c r="H4">
-        <v>1.689219125505383</v>
+        <v>1.783958737389882</v>
       </c>
       <c r="I4">
-        <v>2.715342074515465</v>
+        <v>2.882379932360314</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.0831692237886</v>
+        <v>18.14906187841066</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.82425442578046</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.31282125157735</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.43214264549177</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.04382530369643</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>17.24151874214646</v>
+      </c>
+      <c r="R4">
+        <v>12.59605782723203</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.53000553943382</v>
+        <v>18.67857750718274</v>
       </c>
       <c r="C5">
-        <v>17.66380876681916</v>
+        <v>18.30609737004798</v>
       </c>
       <c r="D5">
-        <v>4.250001324203875</v>
+        <v>3.909648731217842</v>
       </c>
       <c r="E5">
-        <v>10.77383734095172</v>
+        <v>11.24947324401673</v>
       </c>
       <c r="F5">
-        <v>30.8610432940964</v>
+        <v>28.51587047010883</v>
       </c>
       <c r="G5">
-        <v>2.091338116527357</v>
+        <v>2.395296366699346</v>
       </c>
       <c r="H5">
-        <v>1.614195970197473</v>
+        <v>1.720103026439166</v>
       </c>
       <c r="I5">
-        <v>2.646479477942154</v>
+        <v>2.832290823411583</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>19.9101893855876</v>
+        <v>18.01518648054318</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.77222703456884</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.15746338208307</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.11695361013584</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.07401878361022</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.93420398072305</v>
+      </c>
+      <c r="R5">
+        <v>12.62673043074808</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.44635747338468</v>
+        <v>18.60265581971916</v>
       </c>
       <c r="C6">
-        <v>17.60590000090837</v>
+        <v>18.24619352697012</v>
       </c>
       <c r="D6">
-        <v>4.247611023409931</v>
+        <v>3.90671098962522</v>
       </c>
       <c r="E6">
-        <v>10.74170631723137</v>
+        <v>11.22177248814215</v>
       </c>
       <c r="F6">
-        <v>30.76319489348034</v>
+        <v>28.42695870663142</v>
       </c>
       <c r="G6">
-        <v>2.091684096813653</v>
+        <v>2.435593165116454</v>
       </c>
       <c r="H6">
-        <v>1.60123017450514</v>
+        <v>1.709096074774112</v>
       </c>
       <c r="I6">
-        <v>2.635542981787591</v>
+        <v>2.824847074226311</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>19.86482944039559</v>
+        <v>17.97775378006007</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.75167600393907</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.12055896958356</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.06181165736323</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.07589605743699</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.88051890929918</v>
+      </c>
+      <c r="R6">
+        <v>12.62960142429777</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.9288392525668</v>
+        <v>19.00089044468211</v>
       </c>
       <c r="C7">
-        <v>18.05549808006338</v>
+        <v>18.63624465467468</v>
       </c>
       <c r="D7">
-        <v>4.248468130141228</v>
+        <v>3.911708567984775</v>
       </c>
       <c r="E7">
-        <v>10.97056473382928</v>
+        <v>11.43391067669011</v>
       </c>
       <c r="F7">
-        <v>31.25025700934263</v>
+        <v>28.74756936204273</v>
       </c>
       <c r="G7">
-        <v>2.089436903525222</v>
+        <v>2.258694819741328</v>
       </c>
       <c r="H7">
-        <v>1.687065528260262</v>
+        <v>1.780101539950862</v>
       </c>
       <c r="I7">
-        <v>2.715486956363157</v>
+        <v>2.880751680703391</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.03601045471748</v>
+        <v>18.04576238556292</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.74493017203437</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.234350518991</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.421856792941</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.03569496638775</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>17.21052148191005</v>
+      </c>
+      <c r="R7">
+        <v>12.58167775770377</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.95606108023059</v>
+        <v>20.7520952833742</v>
       </c>
       <c r="C8">
-        <v>19.92257151852971</v>
+        <v>20.39871719815169</v>
       </c>
       <c r="D8">
-        <v>4.253999874123076</v>
+        <v>3.94618488124947</v>
       </c>
       <c r="E8">
-        <v>11.93306365971587</v>
+        <v>12.30034110910997</v>
       </c>
       <c r="F8">
-        <v>33.39020368193718</v>
+        <v>30.4038809611742</v>
       </c>
       <c r="G8">
-        <v>2.079770581805936</v>
+        <v>1.779539236651743</v>
       </c>
       <c r="H8">
-        <v>2.054954433766513</v>
+        <v>2.087964888483104</v>
       </c>
       <c r="I8">
-        <v>3.057944812524542</v>
+        <v>3.124959243708507</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.82350611353306</v>
+        <v>18.50381359081457</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.83505251851762</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.87919282052979</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.93786032926641</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.8669811561571</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.64215965101619</v>
+      </c>
+      <c r="R8">
+        <v>12.39638188168544</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.51794244309066</v>
+        <v>23.93809938774834</v>
       </c>
       <c r="C9">
-        <v>23.20295055721851</v>
+        <v>23.70153666811789</v>
       </c>
       <c r="D9">
-        <v>4.26253316035505</v>
+        <v>4.022316151185292</v>
       </c>
       <c r="E9">
-        <v>13.65767976566682</v>
+        <v>13.80837537013957</v>
       </c>
       <c r="F9">
-        <v>37.41869352788484</v>
+        <v>33.87689081337837</v>
       </c>
       <c r="G9">
-        <v>2.061710060956151</v>
+        <v>3.302490699399205</v>
       </c>
       <c r="H9">
-        <v>2.737968163613348</v>
+        <v>2.663063118916721</v>
       </c>
       <c r="I9">
-        <v>3.699618513045563</v>
+        <v>3.589483762257303</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.39544362523685</v>
+        <v>19.63252479400438</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.16718432118272</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.3925864787325</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.63332094613163</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.55241125529688</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>21.24670131068556</v>
+      </c>
+      <c r="R9">
+        <v>12.0726520559078</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.80973751333003</v>
+        <v>25.81515472286391</v>
       </c>
       <c r="C10">
-        <v>25.32654042979031</v>
+        <v>25.50015225600578</v>
       </c>
       <c r="D10">
-        <v>4.237601108750085</v>
+        <v>4.041883928195589</v>
       </c>
       <c r="E10">
-        <v>14.38400531172828</v>
+        <v>14.43193681043956</v>
       </c>
       <c r="F10">
-        <v>39.93484589918744</v>
+        <v>35.46493039609954</v>
       </c>
       <c r="G10">
-        <v>2.049243289627576</v>
+        <v>5.446988216128624</v>
       </c>
       <c r="H10">
-        <v>3.189662119518252</v>
+        <v>3.027369476663764</v>
       </c>
       <c r="I10">
-        <v>4.145390125705215</v>
+        <v>3.895773988718399</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.33552831606018</v>
+        <v>19.96562731186367</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.04589780772019</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.13108133415394</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.12520788353556</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.27826005365382</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.57641863639672</v>
+      </c>
+      <c r="R10">
+        <v>11.77253369443708</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.40901035577288</v>
+        <v>26.07162981052119</v>
       </c>
       <c r="C11">
-        <v>25.55722555382415</v>
+        <v>25.00502111914318</v>
       </c>
       <c r="D11">
-        <v>4.059173361655978</v>
+        <v>4.050106502298675</v>
       </c>
       <c r="E11">
-        <v>11.30384377947365</v>
+        <v>11.19864367295058</v>
       </c>
       <c r="F11">
-        <v>38.87997598688167</v>
+        <v>33.34145378868018</v>
       </c>
       <c r="G11">
-        <v>2.045954197233543</v>
+        <v>8.699533027385902</v>
       </c>
       <c r="H11">
-        <v>3.757081401555571</v>
+        <v>3.590744057075298</v>
       </c>
       <c r="I11">
-        <v>4.261464618686645</v>
+        <v>3.952196347440615</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.31946355937586</v>
+        <v>18.42166276288072</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.80117895973439</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.10364006614281</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.10976441495368</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.83619662179362</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.36402335669404</v>
+      </c>
+      <c r="R11">
+        <v>11.48511864491909</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.48360784164681</v>
+        <v>26.04271122231977</v>
       </c>
       <c r="C12">
-        <v>25.30087865840705</v>
+        <v>24.39450509112063</v>
       </c>
       <c r="D12">
-        <v>3.962136084723249</v>
+        <v>4.134271228913081</v>
       </c>
       <c r="E12">
-        <v>9.510543972959098</v>
+        <v>9.104940131614052</v>
       </c>
       <c r="F12">
-        <v>37.52076534664134</v>
+        <v>31.60061296865779</v>
       </c>
       <c r="G12">
-        <v>2.045508380892903</v>
+        <v>10.39052421802276</v>
       </c>
       <c r="H12">
-        <v>4.751449554671524</v>
+        <v>4.619512251405819</v>
       </c>
       <c r="I12">
-        <v>4.272899142846179</v>
+        <v>3.948812780916716</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>21.31248280781456</v>
+        <v>17.29339970073978</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.96656513111711</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.26468902662491</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.08727021354288</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.58049130965239</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.26982242103122</v>
+      </c>
+      <c r="R12">
+        <v>11.40877964703315</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.12862387112808</v>
+        <v>25.8348643996951</v>
       </c>
       <c r="C13">
-        <v>24.6630865637015</v>
+        <v>23.78699541652604</v>
       </c>
       <c r="D13">
-        <v>3.916382511543057</v>
+        <v>4.214089626547548</v>
       </c>
       <c r="E13">
-        <v>9.084611460745856</v>
+        <v>8.376770717441564</v>
       </c>
       <c r="F13">
-        <v>35.72722306216509</v>
+        <v>30.16522487617234</v>
       </c>
       <c r="G13">
-        <v>2.047282620094528</v>
+        <v>9.934085728382064</v>
       </c>
       <c r="H13">
-        <v>5.901628954110148</v>
+        <v>5.808393461943677</v>
       </c>
       <c r="I13">
-        <v>4.205062177920629</v>
+        <v>3.905792278932151</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.17119624308129</v>
+        <v>16.46392450854682</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.41348283657693</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.56453104741489</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.87121250792714</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.44237275364354</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.11178600284868</v>
+      </c>
+      <c r="R13">
+        <v>11.43639526422991</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6752408820175</v>
+        <v>25.59689017722715</v>
       </c>
       <c r="C14">
-        <v>24.03967207070408</v>
+        <v>23.35182212774108</v>
       </c>
       <c r="D14">
-        <v>3.913220081076468</v>
+        <v>4.254207579602317</v>
       </c>
       <c r="E14">
-        <v>9.71816048759948</v>
+        <v>8.943768136494173</v>
       </c>
       <c r="F14">
-        <v>34.23856550479458</v>
+        <v>29.25616509840116</v>
       </c>
       <c r="G14">
-        <v>2.049512420899172</v>
+        <v>8.657238535056466</v>
       </c>
       <c r="H14">
-        <v>6.764945129812958</v>
+        <v>6.695603715768661</v>
       </c>
       <c r="I14">
-        <v>4.122981275187667</v>
+        <v>3.858418587899692</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.29388361889938</v>
+        <v>15.9922577165277</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.13100103668174</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.11769090586476</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.20362114552784</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.40497250390678</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.54092447898905</v>
+      </c>
+      <c r="R14">
+        <v>11.48828967707677</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.4621033688646</v>
+        <v>25.4857862023227</v>
       </c>
       <c r="C15">
-        <v>23.80771159682808</v>
+        <v>23.2379862549109</v>
       </c>
       <c r="D15">
-        <v>3.917782555330272</v>
+        <v>4.252291393034089</v>
       </c>
       <c r="E15">
-        <v>9.955561790456228</v>
+        <v>9.208332577647488</v>
       </c>
       <c r="F15">
-        <v>33.76119941068406</v>
+        <v>29.06232751800408</v>
       </c>
       <c r="G15">
-        <v>2.050572674334489</v>
+        <v>7.942557358000975</v>
       </c>
       <c r="H15">
-        <v>6.961154657263094</v>
+        <v>6.898862387365469</v>
       </c>
       <c r="I15">
-        <v>4.085598474558743</v>
+        <v>3.838233649437516</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.03735100100235</v>
+        <v>15.91455226449348</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.10020239582409</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.01921688001723</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.75029067804685</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.41361637197102</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.13516225436235</v>
+      </c>
+      <c r="R15">
+        <v>11.5087692831964</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.55689034549404</v>
+        <v>24.99536461601775</v>
       </c>
       <c r="C16">
-        <v>23.01948950610236</v>
+        <v>23.05618732876987</v>
       </c>
       <c r="D16">
-        <v>3.935106612290066</v>
+        <v>4.141034266947075</v>
       </c>
       <c r="E16">
-        <v>9.604959577982063</v>
+        <v>9.088167187964151</v>
       </c>
       <c r="F16">
-        <v>32.90971538831703</v>
+        <v>29.38499322148654</v>
       </c>
       <c r="G16">
-        <v>2.055522185815895</v>
+        <v>4.811754749191354</v>
       </c>
       <c r="H16">
-        <v>6.671714560432274</v>
+        <v>6.628849347599093</v>
       </c>
       <c r="I16">
-        <v>3.911228233757896</v>
+        <v>3.739854221176566</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.79813631534207</v>
+        <v>16.32684469023101</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.50534382638786</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.16854669881987</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.4151879664436</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.55447797436375</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.99958298833109</v>
+      </c>
+      <c r="R16">
+        <v>11.57721586635467</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.09939017592752</v>
+        <v>24.69537817501366</v>
       </c>
       <c r="C17">
-        <v>22.75281550794993</v>
+        <v>23.07515666746058</v>
       </c>
       <c r="D17">
-        <v>3.946237320154901</v>
+        <v>4.065220606164646</v>
       </c>
       <c r="E17">
-        <v>8.818289128401457</v>
+        <v>8.441910057390883</v>
       </c>
       <c r="F17">
-        <v>33.07849145235642</v>
+        <v>29.99814408887705</v>
       </c>
       <c r="G17">
-        <v>2.05816120867927</v>
+        <v>3.751447368486843</v>
       </c>
       <c r="H17">
-        <v>5.936843923023328</v>
+        <v>5.899627640161474</v>
       </c>
       <c r="I17">
-        <v>3.820355214323118</v>
+        <v>3.686097673164267</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>19.09156682137813</v>
+        <v>16.83208000203921</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.93331165889485</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.46607551409437</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.08359527125284</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.67831936844824</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.74660377268321</v>
+      </c>
+      <c r="R17">
+        <v>11.62798668075614</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.00961333336958</v>
+        <v>24.61715648680428</v>
       </c>
       <c r="C18">
-        <v>22.90795621283307</v>
+        <v>23.38237354950148</v>
       </c>
       <c r="D18">
-        <v>3.976235999322628</v>
+        <v>4.01009951974415</v>
       </c>
       <c r="E18">
-        <v>8.430834173527369</v>
+        <v>8.189112383529638</v>
       </c>
       <c r="F18">
-        <v>34.18810101266029</v>
+        <v>31.17124537739554</v>
       </c>
       <c r="G18">
-        <v>2.058958564268514</v>
+        <v>3.472117648801207</v>
       </c>
       <c r="H18">
-        <v>4.793983567154879</v>
+        <v>4.750942352054125</v>
       </c>
       <c r="I18">
-        <v>3.793313568976988</v>
+        <v>3.669278357105564</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.90807723217936</v>
+        <v>17.61622888287807</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.52984502365951</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.03663362313908</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.70395652283159</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.83048250329882</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.38548316045595</v>
+      </c>
+      <c r="R18">
+        <v>11.68385546951392</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.18353542875053</v>
+        <v>24.71429119574704</v>
       </c>
       <c r="C19">
-        <v>23.41533882246106</v>
+        <v>23.96923297546946</v>
       </c>
       <c r="D19">
-        <v>4.0489162370157</v>
+        <v>3.994636826253676</v>
       </c>
       <c r="E19">
-        <v>9.753158413584877</v>
+        <v>9.659322735066848</v>
       </c>
       <c r="F19">
-        <v>35.85864810673128</v>
+        <v>32.68929383710965</v>
       </c>
       <c r="G19">
-        <v>2.058121327071712</v>
+        <v>3.527788807051651</v>
       </c>
       <c r="H19">
-        <v>3.61730238982079</v>
+        <v>3.552746659609555</v>
       </c>
       <c r="I19">
-        <v>3.828534684414572</v>
+        <v>3.695962433234239</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.00777553779174</v>
+        <v>18.54640790491311</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.20582220240807</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.76387571966625</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.93975865978948</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.02354514329757</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.60528396029918</v>
+      </c>
+      <c r="R19">
+        <v>11.76268262435815</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.154391846545</v>
+        <v>25.37836116577285</v>
       </c>
       <c r="C20">
-        <v>24.81535967794921</v>
+        <v>25.26715875826013</v>
       </c>
       <c r="D20">
-        <v>4.229380122880404</v>
+        <v>4.042151943176763</v>
       </c>
       <c r="E20">
-        <v>14.17922259325004</v>
+        <v>14.21894487786132</v>
       </c>
       <c r="F20">
-        <v>39.12340628382225</v>
+        <v>35.24339614944775</v>
       </c>
       <c r="G20">
-        <v>2.052622672955839</v>
+        <v>4.345694428583859</v>
       </c>
       <c r="H20">
-        <v>3.066813578684582</v>
+        <v>2.935207005020447</v>
       </c>
       <c r="I20">
-        <v>4.030709827913069</v>
+        <v>3.832102436061181</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.96035293801062</v>
+        <v>19.95348140374061</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.13140458439616</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.99700047707563</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.71340260476756</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.3234396396598</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>22.26876151639584</v>
+      </c>
+      <c r="R20">
+        <v>11.85935430903932</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.91240460418469</v>
+        <v>26.26523064471996</v>
       </c>
       <c r="C21">
-        <v>26.50127299379715</v>
+        <v>25.72421114960806</v>
       </c>
       <c r="D21">
-        <v>4.244708821476152</v>
+        <v>4.032412476034164</v>
       </c>
       <c r="E21">
-        <v>15.40687131078818</v>
+        <v>15.58785372556597</v>
       </c>
       <c r="F21">
-        <v>41.41460689366875</v>
+        <v>35.05702482337613</v>
       </c>
       <c r="G21">
-        <v>2.042734629280494</v>
+        <v>10.30518232895303</v>
       </c>
       <c r="H21">
-        <v>3.452182020926462</v>
+        <v>3.215449062197704</v>
       </c>
       <c r="I21">
-        <v>4.383946379759691</v>
+        <v>4.024970741917256</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.94783748574245</v>
+        <v>19.44590815408332</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.50247595571132</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.9535491790973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.28923265081849</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.17915507320091</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.4046073810298</v>
+      </c>
+      <c r="R21">
+        <v>11.55552845894652</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.01888936587806</v>
+        <v>26.7927134687625</v>
       </c>
       <c r="C22">
-        <v>27.51074117927351</v>
+        <v>25.89658616061323</v>
       </c>
       <c r="D22">
-        <v>4.248365445173917</v>
+        <v>4.055723174875641</v>
       </c>
       <c r="E22">
-        <v>15.95922345381164</v>
+        <v>16.24398770767368</v>
       </c>
       <c r="F22">
-        <v>42.81001413437826</v>
+        <v>34.77011159961696</v>
       </c>
       <c r="G22">
-        <v>2.036425167134635</v>
+        <v>15.18756726222043</v>
       </c>
       <c r="H22">
-        <v>3.687478595833962</v>
+        <v>3.382798472878497</v>
       </c>
       <c r="I22">
-        <v>4.607333618237772</v>
+        <v>4.143313320214935</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.55198878128728</v>
+        <v>19.02817728925142</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.041786027626</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.8536324039191</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.13316534881094</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.07555055696681</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.94996237348404</v>
+      </c>
+      <c r="R22">
+        <v>11.36685501781924</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.45729268992797</v>
+        <v>26.60973295885595</v>
       </c>
       <c r="C23">
-        <v>26.96205399595548</v>
+        <v>25.92678719314396</v>
       </c>
       <c r="D23">
-        <v>4.252029071305525</v>
+        <v>4.040165100204549</v>
       </c>
       <c r="E23">
-        <v>15.66400998023446</v>
+        <v>15.86295652528741</v>
       </c>
       <c r="F23">
-        <v>42.12211459015373</v>
+        <v>35.20974252398366</v>
       </c>
       <c r="G23">
-        <v>2.039741339399214</v>
+        <v>11.82760070349813</v>
       </c>
       <c r="H23">
-        <v>3.563379204724511</v>
+        <v>3.298672066588126</v>
       </c>
       <c r="I23">
-        <v>4.487678718106973</v>
+        <v>4.083475250304003</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.27504097678793</v>
+        <v>19.42560139243448</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.40828020826743</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.0474143819557</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.69110728987829</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.14048100169822</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>23.70852492151664</v>
+      </c>
+      <c r="R23">
+        <v>11.48067674107401</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.19841159489456</v>
+        <v>25.41687574815377</v>
       </c>
       <c r="C24">
-        <v>24.8328588976294</v>
+        <v>25.30111527933187</v>
       </c>
       <c r="D24">
-        <v>4.254610580737222</v>
+        <v>4.051488918701027</v>
       </c>
       <c r="E24">
-        <v>14.51767216458488</v>
+        <v>14.56446305191033</v>
       </c>
       <c r="F24">
-        <v>39.36803284529631</v>
+        <v>35.481878066399</v>
       </c>
       <c r="G24">
-        <v>2.052495415023943</v>
+        <v>4.336367752661518</v>
       </c>
       <c r="H24">
-        <v>3.08548948074479</v>
+        <v>2.952994713744127</v>
       </c>
       <c r="I24">
-        <v>4.031397168610818</v>
+        <v>3.829697033190856</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.14315032804818</v>
+        <v>20.12113637994475</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.25601777319958</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.12457732491617</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.94502107847106</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.37138358158608</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>22.50058686624431</v>
+      </c>
+      <c r="R24">
+        <v>11.88758069693871</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.55940841904106</v>
+        <v>23.12713081941035</v>
       </c>
       <c r="C25">
-        <v>22.37638877899294</v>
+        <v>22.95608557036781</v>
       </c>
       <c r="D25">
-        <v>4.252849036787749</v>
+        <v>4.005420624721786</v>
       </c>
       <c r="E25">
-        <v>13.21123478970836</v>
+        <v>13.40357881041507</v>
       </c>
       <c r="F25">
-        <v>36.26613330495269</v>
+        <v>33.02640076495613</v>
       </c>
       <c r="G25">
-        <v>2.066574561740139</v>
+        <v>2.618894343106591</v>
       </c>
       <c r="H25">
-        <v>2.555298425972798</v>
+        <v>2.512728867353882</v>
       </c>
       <c r="I25">
-        <v>3.529877096646119</v>
+        <v>3.473484333081637</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.9015394197281</v>
+        <v>19.34621308289777</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.09362458358513</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.99275713333225</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.92567428166572</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.62250081999149</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>20.59069287092973</v>
+      </c>
+      <c r="R25">
+        <v>12.16204850198331</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
